--- a/02_Bestellungen/Stückliste.xlsx
+++ b/02_Bestellungen/Stückliste.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcel/Documents/DHBW/DH Elektrotechnik Semester 5/LIDAR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Studium\Hochschule\5.Semester\Studienarbeit\LIDAR\02_Bestellungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B89AA-C80C-465B-A692-B169DA174C2A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14483" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Stückliste</t>
   </si>
@@ -129,16 +130,64 @@
   </si>
   <si>
     <t>https://eckstein-shop.de/10mm-Lichtschranke-Photoelectric-Infrarot-Zaehler-Counter-Sensor-Modul</t>
+  </si>
+  <si>
+    <t>Bestellt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Gyrosensor</t>
+  </si>
+  <si>
+    <t>Slipring</t>
+  </si>
+  <si>
+    <t>Netzteil</t>
+  </si>
+  <si>
+    <t>Stepdown Wandler</t>
+  </si>
+  <si>
+    <t>Ritzel + Riemen (t2,5)</t>
+  </si>
+  <si>
+    <t>https://www.exp-tech.de/motoren/schleifring/5872/slip-ring-with-flange-22mm-diameter-12-wires-max-240v-at-2a</t>
+  </si>
+  <si>
+    <t>Bei Bosch fragen</t>
+  </si>
+  <si>
+    <t>Haben wir schon</t>
+  </si>
+  <si>
+    <t>Fehlt (noch Link suchen + nächste Bestellung)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/OYY-Transformator-Schaltnetzteil-Netzger%C3%A4t-Stromversorgung/dp/B076FW63CX/ref=sr_1_3?ie=UTF8&amp;qid=1541765071&amp;sr=8-3&amp;keywords=12v+10a+schaltnetzteil</t>
+  </si>
+  <si>
+    <t>12V 10A</t>
+  </si>
+  <si>
+    <t>Vll anderer Link + Preis</t>
+  </si>
+  <si>
+    <t>Netzkabel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B00PL70P7K?ie=UTF8&amp;linkCode=as2&amp;camp=1634&amp;creative=6738&amp;tag=754-21&amp;creativeASIN=B00PL70P7K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +223,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,23 +252,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,26 +543,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="22.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="10.8125" style="5"/>
+    <col min="5" max="5" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="46.15" x14ac:dyDescent="1.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -509,8 +574,11 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33.4" x14ac:dyDescent="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -519,30 +587,30 @@
       </c>
       <c r="J3" s="5">
         <f>SUM(D:D)</f>
-        <v>122.47000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>153.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -553,12 +621,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -571,27 +639,33 @@
       <c r="D10" s="5">
         <v>39.950000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.4">
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33.4" x14ac:dyDescent="1">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -604,8 +678,11 @@
       <c r="D13" s="5">
         <v>15.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -619,8 +696,11 @@
         <f>3*2.98</f>
         <v>8.94</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -630,18 +710,21 @@
       <c r="D15" s="5">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="33.4" x14ac:dyDescent="1">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -649,22 +732,87 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{74290D8E-D3EC-4B6C-BF3A-3730E60448CD}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{1DA9F67F-B95F-4DFF-8661-4C694B1CB41C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/02_Bestellungen/Stückliste.xlsx
+++ b/02_Bestellungen/Stückliste.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Studium\Hochschule\5.Semester\Studienarbeit\LIDAR\02_Bestellungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcel/Documents/DHBW/DH_Elektrotechnik_Semester_5/LIDAR/02_Bestellungen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B89AA-C80C-465B-A692-B169DA174C2A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14483" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -165,9 +164,6 @@
     <t>Fehlt (noch Link suchen + nächste Bestellung)</t>
   </si>
   <si>
-    <t>https://www.amazon.de/OYY-Transformator-Schaltnetzteil-Netzger%C3%A4t-Stromversorgung/dp/B076FW63CX/ref=sr_1_3?ie=UTF8&amp;qid=1541765071&amp;sr=8-3&amp;keywords=12v+10a+schaltnetzteil</t>
-  </si>
-  <si>
     <t>12V 10A</t>
   </si>
   <si>
@@ -178,16 +174,19 @@
   </si>
   <si>
     <t>https://www.amazon.de/gp/product/B00PL70P7K?ie=UTF8&amp;linkCode=as2&amp;camp=1634&amp;creative=6738&amp;tag=754-21&amp;creativeASIN=B00PL70P7K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Salcar-Luftreiniger-LED-Lichtleiste-Sicherheitskamera-Festplatten/dp/B00V9Z5HI0/ref=sr_1_3?ie=UTF8&amp;qid=1542795238&amp;sr=8-3&amp;keywords=netzteil+12v+10a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +229,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,10 +270,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -543,28 +551,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="10.8125" style="5"/>
-    <col min="5" max="5" width="11" style="6"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.15" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:10" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -578,7 +586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33.4" x14ac:dyDescent="1">
+    <row r="3" spans="1:10" ht="33.5" x14ac:dyDescent="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -590,27 +598,27 @@
         <v>153.71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -621,12 +629,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -643,12 +651,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33.4" x14ac:dyDescent="1">
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -665,7 +673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -682,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -700,7 +708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -714,17 +722,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33.4" x14ac:dyDescent="1">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -732,33 +740,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="5">
         <v>5.49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -769,26 +777,26 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -796,7 +804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -806,13 +814,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{74290D8E-D3EC-4B6C-BF3A-3730E60448CD}"/>
-    <hyperlink ref="C26" r:id="rId5" xr:uid="{1DA9F67F-B95F-4DFF-8661-4C694B1CB41C}"/>
+    <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>